--- a/results/mp/tinybert/home-spam/confidence/210/stop-words-masking-0.2/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/210/stop-words-masking-0.2/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="79">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,6 +40,9 @@
     <t>name</t>
   </si>
   <si>
+    <t>useless</t>
+  </si>
+  <si>
     <t>disappointed</t>
   </si>
   <si>
@@ -49,123 +52,105 @@
     <t>negative</t>
   </si>
   <si>
-    <t>amazing</t>
-  </si>
-  <si>
     <t>loves</t>
   </si>
   <si>
     <t>excellent</t>
   </si>
   <si>
+    <t>awesome</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
-    <t>awesome</t>
-  </si>
-  <si>
     <t>wonderful</t>
   </si>
   <si>
     <t>beautiful</t>
   </si>
   <si>
+    <t>pleased</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>perfect</t>
+  </si>
+  <si>
     <t>thank</t>
   </si>
   <si>
-    <t>perfect</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>salad</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>husband</t>
+  </si>
+  <si>
+    <t>perfectly</t>
+  </si>
+  <si>
+    <t>cake</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>daughter</t>
   </si>
   <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>pleased</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
     <t>cakes</t>
   </si>
   <si>
-    <t>family</t>
-  </si>
-  <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>rice</t>
-  </si>
-  <si>
-    <t>glad</t>
-  </si>
-  <si>
     <t>potatoes</t>
   </si>
   <si>
-    <t>perfectly</t>
+    <t>pie</t>
+  </si>
+  <si>
+    <t>sturdy</t>
   </si>
   <si>
     <t>wife</t>
   </si>
   <si>
+    <t>cooke</t>
+  </si>
+  <si>
     <t>cheese</t>
   </si>
   <si>
-    <t>husband</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>cake</t>
-  </si>
-  <si>
-    <t>sturdy</t>
-  </si>
-  <si>
-    <t>pie</t>
-  </si>
-  <si>
-    <t>cooke</t>
-  </si>
-  <si>
     <t>comfortable</t>
   </si>
   <si>
-    <t>thanks</t>
+    <t>ze</t>
+  </si>
+  <si>
+    <t>bread</t>
+  </si>
+  <si>
+    <t>gift</t>
+  </si>
+  <si>
+    <t>cream</t>
   </si>
   <si>
     <t>ever</t>
   </si>
   <si>
-    <t>bread</t>
-  </si>
-  <si>
-    <t>gift</t>
-  </si>
-  <si>
-    <t>ze</t>
-  </si>
-  <si>
-    <t>popcorn</t>
-  </si>
-  <si>
-    <t>cream</t>
-  </si>
-  <si>
     <t>years</t>
   </si>
   <si>
@@ -178,51 +163,51 @@
     <t>old</t>
   </si>
   <si>
-    <t>always</t>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>tea</t>
   </si>
   <si>
     <t>day</t>
   </si>
   <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>tea</t>
+    <t>highly</t>
+  </si>
+  <si>
+    <t>cook</t>
+  </si>
+  <si>
+    <t>kitchen</t>
   </si>
   <si>
     <t>keeps</t>
   </si>
   <si>
-    <t>kitchen</t>
-  </si>
-  <si>
-    <t>cook</t>
-  </si>
-  <si>
-    <t>highly</t>
-  </si>
-  <si>
     <t>good</t>
   </si>
   <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>works</t>
+  </si>
+  <si>
+    <t>pan</t>
+  </si>
+  <si>
+    <t>every</t>
+  </si>
+  <si>
     <t>well</t>
   </si>
   <si>
-    <t>works</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>pan</t>
-  </si>
-  <si>
-    <t>every</t>
-  </si>
-  <si>
     <t>recommend</t>
   </si>
   <si>
+    <t>quality</t>
+  </si>
+  <si>
     <t>clean</t>
   </si>
   <si>
@@ -232,40 +217,37 @@
     <t>also</t>
   </si>
   <si>
-    <t>quality</t>
-  </si>
-  <si>
     <t>coffee</t>
   </si>
   <si>
     <t>make</t>
   </si>
   <si>
-    <t>hot</t>
-  </si>
-  <si>
     <t>bought</t>
   </si>
   <si>
     <t>little</t>
   </si>
   <si>
+    <t>really</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>really</t>
+    <t>time</t>
+  </si>
+  <si>
+    <t>used</t>
   </si>
   <si>
     <t>use</t>
   </si>
   <si>
-    <t>used</t>
-  </si>
-  <si>
-    <t>time</t>
+    <t>product</t>
   </si>
   <si>
     <t>positive</t>
@@ -626,7 +608,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q75"/>
+  <dimension ref="A1:Q68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -634,10 +616,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J1" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -695,13 +677,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.4031007751937984</v>
+        <v>0.725</v>
       </c>
       <c r="C3">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="D3">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -713,19 +695,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>77</v>
+        <v>11</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.967741935483871</v>
       </c>
       <c r="L3">
-        <v>29</v>
+        <v>90</v>
       </c>
       <c r="M3">
-        <v>29</v>
+        <v>90</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -737,7 +719,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -745,13 +727,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.3636363636363636</v>
+        <v>0.4186046511627907</v>
       </c>
       <c r="C4">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="D4">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -763,45 +745,69 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="J4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4">
+        <v>0.90625</v>
+      </c>
+      <c r="L4">
+        <v>116</v>
+      </c>
+      <c r="M4">
+        <v>116</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q4">
         <v>12</v>
       </c>
-      <c r="K4">
-        <v>0.967741935483871</v>
-      </c>
-      <c r="L4">
-        <v>90</v>
-      </c>
-      <c r="M4">
-        <v>90</v>
-      </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>3</v>
-      </c>
     </row>
     <row r="5" spans="1:17">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>0.3535353535353535</v>
+      </c>
+      <c r="C5">
+        <v>35</v>
+      </c>
+      <c r="D5">
+        <v>35</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>64</v>
+      </c>
       <c r="J5" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K5">
-        <v>0.90625</v>
+        <v>0.8913043478260869</v>
       </c>
       <c r="L5">
-        <v>116</v>
+        <v>41</v>
       </c>
       <c r="M5">
-        <v>116</v>
+        <v>41</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -813,21 +819,21 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="J6" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K6">
-        <v>0.8699690402476781</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="L6">
-        <v>562</v>
+        <v>570</v>
       </c>
       <c r="M6">
-        <v>562</v>
+        <v>570</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -839,21 +845,21 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="J7" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K7">
-        <v>0.8695652173913043</v>
+        <v>0.855072463768116</v>
       </c>
       <c r="L7">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="M7">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -865,21 +871,21 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="J8" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K8">
-        <v>0.855072463768116</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="L8">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="M8">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -891,21 +897,21 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="J9" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K9">
-        <v>0.7727272727272727</v>
+        <v>0.7532467532467533</v>
       </c>
       <c r="L9">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="M9">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -917,21 +923,21 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="J10" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K10">
-        <v>0.7333333333333333</v>
+        <v>0.7229437229437229</v>
       </c>
       <c r="L10">
-        <v>33</v>
+        <v>167</v>
       </c>
       <c r="M10">
-        <v>33</v>
+        <v>167</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -943,21 +949,21 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>12</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K11">
-        <v>0.7254237288135593</v>
+        <v>0.7152542372881356</v>
       </c>
       <c r="L11">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="M11">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -969,21 +975,21 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K12">
-        <v>0.7186147186147186</v>
+        <v>0.7111111111111111</v>
       </c>
       <c r="L12">
-        <v>166</v>
+        <v>32</v>
       </c>
       <c r="M12">
-        <v>166</v>
+        <v>32</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -995,21 +1001,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>65</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K13">
-        <v>0.684931506849315</v>
+        <v>0.6712328767123288</v>
       </c>
       <c r="L13">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M13">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1021,21 +1027,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K14">
-        <v>0.6581059390048154</v>
+        <v>0.6548956661316212</v>
       </c>
       <c r="L14">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="M14">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1047,47 +1053,47 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>426</v>
+        <v>430</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K15">
+        <v>0.6461538461538462</v>
+      </c>
+      <c r="L15">
+        <v>42</v>
+      </c>
+      <c r="M15">
+        <v>42</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q15">
         <v>23</v>
-      </c>
-      <c r="K15">
-        <v>0.6571428571428571</v>
-      </c>
-      <c r="L15">
-        <v>46</v>
-      </c>
-      <c r="M15">
-        <v>46</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K16">
-        <v>0.6530612244897959</v>
+        <v>0.6338028169014085</v>
       </c>
       <c r="L16">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="M16">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1099,21 +1105,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K17">
-        <v>0.6493506493506493</v>
+        <v>0.6176470588235294</v>
       </c>
       <c r="L17">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="M17">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1125,21 +1131,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K18">
-        <v>0.647887323943662</v>
+        <v>0.5964912280701754</v>
       </c>
       <c r="L18">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="M18">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1151,21 +1157,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K19">
-        <v>0.640625</v>
+        <v>0.5921052631578947</v>
       </c>
       <c r="L19">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="M19">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1177,21 +1183,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K20">
-        <v>0.6307692307692307</v>
+        <v>0.5865384615384616</v>
       </c>
       <c r="L20">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="M20">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1203,21 +1209,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>24</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K21">
-        <v>0.6176470588235294</v>
+        <v>0.5771428571428572</v>
       </c>
       <c r="L21">
-        <v>42</v>
+        <v>101</v>
       </c>
       <c r="M21">
-        <v>42</v>
+        <v>101</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1229,47 +1235,47 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>26</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K22">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="L22">
+        <v>40</v>
+      </c>
+      <c r="M22">
+        <v>40</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q22">
         <v>30</v>
-      </c>
-      <c r="K22">
-        <v>0.6078431372549019</v>
-      </c>
-      <c r="L22">
-        <v>31</v>
-      </c>
-      <c r="M22">
-        <v>31</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>20</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K23">
-        <v>0.6041666666666666</v>
+        <v>0.5625</v>
       </c>
       <c r="L23">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="M23">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1281,21 +1287,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K24">
-        <v>0.5873015873015873</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L24">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M24">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1307,21 +1313,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K25">
-        <v>0.5789473684210527</v>
+        <v>0.5538461538461539</v>
       </c>
       <c r="L25">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="M25">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1333,21 +1339,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K26">
-        <v>0.5694444444444444</v>
+        <v>0.5329341317365269</v>
       </c>
       <c r="L26">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="M26">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1359,47 +1365,47 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>31</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K27">
+        <v>0.5138888888888888</v>
+      </c>
+      <c r="L27">
+        <v>37</v>
+      </c>
+      <c r="M27">
+        <v>37</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
         <v>35</v>
-      </c>
-      <c r="K27">
-        <v>0.5662650602409639</v>
-      </c>
-      <c r="L27">
-        <v>47</v>
-      </c>
-      <c r="M27">
-        <v>47</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>36</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K28">
-        <v>0.5614035087719298</v>
+        <v>0.5128205128205128</v>
       </c>
       <c r="L28">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="M28">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1411,21 +1417,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>25</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K29">
-        <v>0.5600000000000001</v>
+        <v>0.5060240963855421</v>
       </c>
       <c r="L29">
-        <v>98</v>
+        <v>42</v>
       </c>
       <c r="M29">
-        <v>98</v>
+        <v>42</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1437,21 +1443,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>77</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K30">
-        <v>0.5384615384615384</v>
+        <v>0.4754098360655737</v>
       </c>
       <c r="L30">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="M30">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1463,21 +1469,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>48</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K31">
-        <v>0.5209580838323353</v>
+        <v>0.4691358024691358</v>
       </c>
       <c r="L31">
-        <v>87</v>
+        <v>38</v>
       </c>
       <c r="M31">
-        <v>87</v>
+        <v>38</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1489,21 +1495,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>80</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K32">
-        <v>0.5076923076923077</v>
+        <v>0.45</v>
       </c>
       <c r="L32">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="M32">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1515,21 +1521,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>32</v>
+        <v>55</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K33">
-        <v>0.4957264957264957</v>
+        <v>0.4457831325301205</v>
       </c>
       <c r="L33">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="M33">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1541,21 +1547,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>59</v>
+        <v>92</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K34">
-        <v>0.4918032786885246</v>
+        <v>0.4264705882352941</v>
       </c>
       <c r="L34">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M34">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1567,21 +1573,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K35">
-        <v>0.4838709677419355</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="L35">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="M35">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1593,21 +1599,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>32</v>
+        <v>77</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K36">
-        <v>0.481203007518797</v>
+        <v>0.3735408560311284</v>
       </c>
       <c r="L36">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="M36">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1619,21 +1625,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>69</v>
+        <v>161</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K37">
-        <v>0.48</v>
+        <v>0.3725490196078431</v>
       </c>
       <c r="L37">
-        <v>48</v>
+        <v>152</v>
       </c>
       <c r="M37">
-        <v>48</v>
+        <v>152</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1645,21 +1651,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>52</v>
+        <v>256</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K38">
-        <v>0.4457831325301205</v>
+        <v>0.3513513513513514</v>
       </c>
       <c r="L38">
-        <v>74</v>
+        <v>39</v>
       </c>
       <c r="M38">
-        <v>74</v>
+        <v>39</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1671,21 +1677,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>92</v>
+        <v>72</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K39">
-        <v>0.4444444444444444</v>
+        <v>0.3458646616541353</v>
       </c>
       <c r="L39">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="M39">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1697,21 +1703,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>45</v>
+        <v>87</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K40">
-        <v>0.4342105263157895</v>
+        <v>0.3410958904109589</v>
       </c>
       <c r="L40">
-        <v>33</v>
+        <v>249</v>
       </c>
       <c r="M40">
-        <v>33</v>
+        <v>249</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1723,21 +1729,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>43</v>
+        <v>481</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K41">
-        <v>0.4264705882352941</v>
+        <v>0.3381294964028777</v>
       </c>
       <c r="L41">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="M41">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1749,21 +1755,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>39</v>
+        <v>92</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K42">
-        <v>0.4007782101167315</v>
+        <v>0.3267326732673267</v>
       </c>
       <c r="L42">
-        <v>103</v>
+        <v>33</v>
       </c>
       <c r="M42">
-        <v>103</v>
+        <v>33</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -1775,21 +1781,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>154</v>
+        <v>68</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K43">
-        <v>0.3651960784313725</v>
+        <v>0.3153153153153153</v>
       </c>
       <c r="L43">
-        <v>149</v>
+        <v>35</v>
       </c>
       <c r="M43">
-        <v>149</v>
+        <v>35</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -1801,21 +1807,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>259</v>
+        <v>76</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K44">
-        <v>0.3603603603603603</v>
+        <v>0.3055555555555556</v>
       </c>
       <c r="L44">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="M44">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -1827,21 +1833,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K45">
-        <v>0.3458646616541353</v>
+        <v>0.291866028708134</v>
       </c>
       <c r="L45">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="M45">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -1853,21 +1859,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>87</v>
+        <v>148</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K46">
-        <v>0.3452380952380952</v>
+        <v>0.2847682119205298</v>
       </c>
       <c r="L46">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="M46">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -1879,21 +1885,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>55</v>
+        <v>108</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K47">
-        <v>0.3366336633663367</v>
+        <v>0.2658772874058127</v>
       </c>
       <c r="L47">
-        <v>34</v>
+        <v>247</v>
       </c>
       <c r="M47">
-        <v>34</v>
+        <v>247</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -1905,21 +1911,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>67</v>
+        <v>682</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K48">
-        <v>0.3082191780821918</v>
+        <v>0.2348993288590604</v>
       </c>
       <c r="L48">
-        <v>225</v>
+        <v>35</v>
       </c>
       <c r="M48">
-        <v>225</v>
+        <v>35</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -1931,21 +1937,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>505</v>
+        <v>114</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K49">
-        <v>0.2877697841726619</v>
+        <v>0.2132450331125828</v>
       </c>
       <c r="L49">
-        <v>40</v>
+        <v>161</v>
       </c>
       <c r="M49">
-        <v>40</v>
+        <v>161</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -1957,21 +1963,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>99</v>
+        <v>594</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K50">
-        <v>0.2847682119205298</v>
+        <v>0.2037617554858934</v>
       </c>
       <c r="L50">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="M50">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -1983,21 +1989,21 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>108</v>
+        <v>254</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K51">
-        <v>0.2822966507177033</v>
+        <v>0.201219512195122</v>
       </c>
       <c r="L51">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="M51">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2009,125 +2015,125 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>150</v>
+        <v>131</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K52">
-        <v>0.2777777777777778</v>
+        <v>0.1946222791293214</v>
       </c>
       <c r="L52">
-        <v>30</v>
+        <v>152</v>
       </c>
       <c r="M52">
-        <v>30</v>
+        <v>153</v>
       </c>
       <c r="N52">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O52">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q52">
-        <v>78</v>
+        <v>629</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K53">
-        <v>0.2612612612612613</v>
+        <v>0.1864864864864865</v>
       </c>
       <c r="L53">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="M53">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="N53">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O53">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q53">
-        <v>82</v>
+        <v>301</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K54">
-        <v>0.2604951560818084</v>
+        <v>0.1698564593301435</v>
       </c>
       <c r="L54">
-        <v>242</v>
+        <v>71</v>
       </c>
       <c r="M54">
-        <v>242</v>
+        <v>72</v>
       </c>
       <c r="N54">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O54">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q54">
-        <v>687</v>
+        <v>347</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K55">
-        <v>0.2378516624040921</v>
+        <v>0.167032967032967</v>
       </c>
       <c r="L55">
-        <v>186</v>
+        <v>76</v>
       </c>
       <c r="M55">
-        <v>186</v>
+        <v>77</v>
       </c>
       <c r="N55">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O55">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q55">
-        <v>596</v>
+        <v>379</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K56">
-        <v>0.2251655629139073</v>
+        <v>0.1586715867158671</v>
       </c>
       <c r="L56">
-        <v>170</v>
+        <v>43</v>
       </c>
       <c r="M56">
-        <v>170</v>
+        <v>43</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2139,47 +2145,47 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>585</v>
+        <v>228</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K57">
-        <v>0.2147651006711409</v>
+        <v>0.154228855721393</v>
       </c>
       <c r="L57">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M57">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N57">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O57">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q57">
-        <v>117</v>
+        <v>170</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K58">
-        <v>0.2037617554858934</v>
+        <v>0.1386363636363636</v>
       </c>
       <c r="L58">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="M58">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -2191,21 +2197,21 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>254</v>
+        <v>379</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K59">
-        <v>0.201219512195122</v>
+        <v>0.137037037037037</v>
       </c>
       <c r="L59">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="M59">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2217,47 +2223,47 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>131</v>
+        <v>233</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K60">
-        <v>0.1837837837837838</v>
+        <v>0.1289537712895377</v>
       </c>
       <c r="L60">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="M60">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="N60">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O60">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q60">
-        <v>302</v>
+        <v>358</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K61">
-        <v>0.1710526315789474</v>
+        <v>0.1202749140893471</v>
       </c>
       <c r="L61">
-        <v>78</v>
+        <v>35</v>
       </c>
       <c r="M61">
-        <v>78</v>
+        <v>35</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -2269,21 +2275,21 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>378</v>
+        <v>256</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K62">
-        <v>0.1623616236162362</v>
+        <v>0.09016393442622951</v>
       </c>
       <c r="L62">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="M62">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -2295,345 +2301,163 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>227</v>
+        <v>333</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K63">
-        <v>0.1576354679802956</v>
+        <v>0.08683473389355742</v>
       </c>
       <c r="L63">
-        <v>32</v>
+        <v>93</v>
       </c>
       <c r="M63">
-        <v>32</v>
+        <v>94</v>
       </c>
       <c r="N63">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O63">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q63">
-        <v>171</v>
+        <v>978</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K64">
-        <v>0.1479713603818616</v>
+        <v>0.08189655172413793</v>
       </c>
       <c r="L64">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="M64">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="N64">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O64">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q64">
-        <v>357</v>
+        <v>639</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K65">
-        <v>0.1431818181818182</v>
+        <v>0.07208872458410351</v>
       </c>
       <c r="L65">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="M65">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="N65">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O65">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q65">
-        <v>377</v>
+        <v>502</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K66">
-        <v>0.1412639405204461</v>
+        <v>0.06165703275529865</v>
       </c>
       <c r="L66">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="M66">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="N66">
-        <v>0.97</v>
+        <v>0.91</v>
       </c>
       <c r="O66">
-        <v>0.03000000000000003</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P66" t="b">
         <v>1</v>
       </c>
       <c r="Q66">
-        <v>231</v>
+        <v>487</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K67">
+        <v>0.06157849089332177</v>
+      </c>
+      <c r="L67">
+        <v>71</v>
+      </c>
+      <c r="M67">
         <v>75</v>
       </c>
-      <c r="K67">
-        <v>0.134453781512605</v>
-      </c>
-      <c r="L67">
-        <v>32</v>
-      </c>
-      <c r="M67">
-        <v>32</v>
-      </c>
       <c r="N67">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O67">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q67">
-        <v>206</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K68">
-        <v>0.1338199513381995</v>
+        <v>0.03937007874015748</v>
       </c>
       <c r="L68">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="M68">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="N68">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="O68">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="P68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q68">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="69" spans="10:17">
-      <c r="J69" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="K69">
-        <v>0.1305841924398626</v>
-      </c>
-      <c r="L69">
-        <v>38</v>
-      </c>
-      <c r="M69">
-        <v>38</v>
-      </c>
-      <c r="N69">
-        <v>1</v>
-      </c>
-      <c r="O69">
-        <v>0</v>
-      </c>
-      <c r="P69" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q69">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="70" spans="10:17">
-      <c r="J70" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="K70">
-        <v>0.09770114942528736</v>
-      </c>
-      <c r="L70">
-        <v>68</v>
-      </c>
-      <c r="M70">
-        <v>70</v>
-      </c>
-      <c r="N70">
-        <v>0.97</v>
-      </c>
-      <c r="O70">
-        <v>0.03000000000000003</v>
-      </c>
-      <c r="P70" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q70">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="71" spans="10:17">
-      <c r="J71" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K71">
-        <v>0.09719626168224299</v>
-      </c>
-      <c r="L71">
-        <v>104</v>
-      </c>
-      <c r="M71">
-        <v>106</v>
-      </c>
-      <c r="N71">
-        <v>0.98</v>
-      </c>
-      <c r="O71">
-        <v>0.02000000000000002</v>
-      </c>
-      <c r="P71" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q71">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="72" spans="10:17">
-      <c r="J72" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="K72">
-        <v>0.08469945355191257</v>
-      </c>
-      <c r="L72">
-        <v>31</v>
-      </c>
-      <c r="M72">
-        <v>31</v>
-      </c>
-      <c r="N72">
-        <v>1</v>
-      </c>
-      <c r="O72">
-        <v>0</v>
-      </c>
-      <c r="P72" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q72">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="73" spans="10:17">
-      <c r="J73" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="K73">
-        <v>0.05805892547660312</v>
-      </c>
-      <c r="L73">
-        <v>67</v>
-      </c>
-      <c r="M73">
-        <v>70</v>
-      </c>
-      <c r="N73">
-        <v>0.96</v>
-      </c>
-      <c r="O73">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="P73" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q73">
-        <v>1087</v>
-      </c>
-    </row>
-    <row r="74" spans="10:17">
-      <c r="J74" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="K74">
-        <v>0.05758157389635317</v>
-      </c>
-      <c r="L74">
-        <v>30</v>
-      </c>
-      <c r="M74">
-        <v>31</v>
-      </c>
-      <c r="N74">
-        <v>0.97</v>
-      </c>
-      <c r="O74">
-        <v>0.03000000000000003</v>
-      </c>
-      <c r="P74" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q74">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="75" spans="10:17">
-      <c r="J75" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="K75">
-        <v>0.05719557195571956</v>
-      </c>
-      <c r="L75">
-        <v>31</v>
-      </c>
-      <c r="M75">
-        <v>31</v>
-      </c>
-      <c r="N75">
-        <v>1</v>
-      </c>
-      <c r="O75">
-        <v>0</v>
-      </c>
-      <c r="P75" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q75">
-        <v>511</v>
+        <v>732</v>
       </c>
     </row>
   </sheetData>
